--- a/04 ЭОМ СС/06 таблицы подключения автоматики.xlsx
+++ b/04 ЭОМ СС/06 таблицы подключения автоматики.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="206">
   <si>
     <t xml:space="preserve">Линия</t>
   </si>
@@ -625,7 +625,31 @@
     <t xml:space="preserve">СС-0.111</t>
   </si>
   <si>
+    <t xml:space="preserve">СС-0.107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARKW-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СС-0.108</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BR-8.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СС-0.109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BR-8.2</t>
+  </si>
+  <si>
     <t xml:space="preserve">СС-0.112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">СС-0.110</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BR-8.3</t>
   </si>
 </sst>
 </file>
@@ -635,7 +659,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -698,6 +722,17 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -783,7 +818,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="38">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -920,8 +955,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1007,10 +1054,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H184" activeCellId="0" sqref="H184"/>
+      <selection pane="bottomLeft" activeCell="C170" activeCellId="0" sqref="C170"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.26"/>
@@ -1019,7 +1066,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="14.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="26.36"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="11.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="11.48"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4796,13 +4843,13 @@
       <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="26.36"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="11.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="11.48"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5768,12 +5815,12 @@
   <dimension ref="A1:J1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="G62" activeCellId="0" sqref="G62"/>
+      <selection pane="bottomLeft" activeCell="H39" activeCellId="0" sqref="H39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.26"/>
@@ -5782,7 +5829,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="14.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="26.36"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="11.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="11.48"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7114,13 +7161,13 @@
       <selection pane="bottomLeft" activeCell="A17" activeCellId="0" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="26.36"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="11.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="11.48"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7475,10 +7522,10 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B60" activeCellId="0" sqref="B60"/>
+      <selection pane="bottomLeft" activeCell="C58" activeCellId="0" sqref="C58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.26"/>
@@ -7487,7 +7534,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="14.09"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="26.36"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="11.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="11.48"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8842,13 +8889,13 @@
       <selection pane="bottomLeft" activeCell="A18" activeCellId="0" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="11.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="9.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="26.36"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="11.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="5" style="1" width="11.48"/>
   </cols>
   <sheetData>
     <row r="1" s="5" customFormat="true" ht="17" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9217,27 +9264,31 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
-  <dimension ref="A1:J1048576"/>
+  <dimension ref="A1:AMJ21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A1" colorId="64" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A22" activeCellId="0" sqref="A22"/>
+      <selection pane="bottomLeft" activeCell="N14" activeCellId="0" sqref="N14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="9.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="18.26"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="17.47"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="5.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="14.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="2" width="14.09"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="26.36"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="10" min="9" style="1" width="11.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="13.89"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="14.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="2" width="14.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="9.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="18.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="17.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="1" width="5.09"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="1" width="13.89"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="true" ht="29.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" s="5" customFormat="true" ht="27.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -9250,14 +9301,30 @@
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
       <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="AMI1" s="0"/>
+      <c r="AMJ1" s="0"/>
     </row>
     <row r="2" s="13" customFormat="true" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="s">
@@ -9271,17 +9338,31 @@
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="8"/>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="10" t="n">
+      <c r="H2" s="10" t="n">
         <v>0</v>
       </c>
-      <c r="H2" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="12"/>
+      <c r="I2" s="34" t="s">
+        <v>197</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+      <c r="N2" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="AMI2" s="0"/>
+      <c r="AMJ2" s="0"/>
     </row>
     <row r="3" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6"/>
@@ -9291,15 +9372,23 @@
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="10" t="s">
+      <c r="F3" s="32"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="32"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-    </row>
-    <row r="4" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="I3" s="34"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="11"/>
+      <c r="AMI3" s="0"/>
+      <c r="AMJ3" s="0"/>
+    </row>
+    <row r="4" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="7" t="s">
@@ -9307,13 +9396,27 @@
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="14"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="10" t="n">
+      <c r="F4" s="32"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="H4" s="32"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
+      <c r="I4" s="34" t="s">
+        <v>199</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>200</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="AMI4" s="0"/>
+      <c r="AMJ4" s="0"/>
     </row>
     <row r="5" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6"/>
@@ -9323,13 +9426,21 @@
       </c>
       <c r="D5" s="14"/>
       <c r="E5" s="14"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-    </row>
-    <row r="6" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F5" s="32"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="11"/>
+      <c r="AMI5" s="0"/>
+      <c r="AMJ5" s="0"/>
+    </row>
+    <row r="6" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="7" t="s">
@@ -9337,13 +9448,27 @@
       </c>
       <c r="D6" s="7"/>
       <c r="E6" s="15"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="10" t="n">
+      <c r="F6" s="32"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="H6" s="32"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
+      <c r="I6" s="34" t="s">
+        <v>201</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>202</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+      <c r="N6" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="AMI6" s="0"/>
+      <c r="AMJ6" s="0"/>
     </row>
     <row r="7" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6"/>
@@ -9353,11 +9478,19 @@
       </c>
       <c r="D7" s="15"/>
       <c r="E7" s="15"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="32"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="34"/>
+      <c r="J7" s="34"/>
+      <c r="K7" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="11"/>
+      <c r="AMI7" s="0"/>
+      <c r="AMJ7" s="0"/>
     </row>
     <row r="8" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6"/>
@@ -9367,13 +9500,19 @@
       </c>
       <c r="D8" s="7"/>
       <c r="E8" s="16"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="10" t="n">
+      <c r="F8" s="32"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="H8" s="32"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="35"/>
+      <c r="M8" s="35"/>
+      <c r="N8" s="32"/>
+      <c r="AMI8" s="0"/>
+      <c r="AMJ8" s="0"/>
     </row>
     <row r="9" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="6"/>
@@ -9383,15 +9522,21 @@
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="32"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="35"/>
+      <c r="M9" s="35"/>
+      <c r="N9" s="32"/>
+      <c r="AMI9" s="0"/>
+      <c r="AMJ9" s="0"/>
     </row>
     <row r="10" s="13" customFormat="true" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>150</v>
@@ -9401,15 +9546,29 @@
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="8"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="10" t="n">
+      <c r="F10" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="9"/>
+      <c r="H10" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="H10" s="32" t="s">
-        <v>10</v>
-      </c>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
+      <c r="I10" s="36" t="s">
+        <v>204</v>
+      </c>
+      <c r="J10" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="L10" s="7"/>
+      <c r="M10" s="8"/>
+      <c r="N10" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="AMI10" s="0"/>
+      <c r="AMJ10" s="0"/>
     </row>
     <row r="11" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6"/>
@@ -9419,11 +9578,19 @@
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="32"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="12"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="36"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8"/>
+      <c r="N11" s="37"/>
+      <c r="AMI11" s="0"/>
+      <c r="AMJ11" s="0"/>
     </row>
     <row r="12" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6"/>
@@ -9433,13 +9600,21 @@
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="14"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="10" t="n">
+      <c r="F12" s="32"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="H12" s="32"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="12"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="L12" s="7"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="37"/>
+      <c r="AMI12" s="0"/>
+      <c r="AMJ12" s="0"/>
     </row>
     <row r="13" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="6"/>
@@ -9449,11 +9624,19 @@
       </c>
       <c r="D13" s="14"/>
       <c r="E13" s="14"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="32"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="12"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="36"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="37"/>
+      <c r="AMI13" s="0"/>
+      <c r="AMJ13" s="0"/>
     </row>
     <row r="14" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6"/>
@@ -9463,13 +9646,19 @@
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="15"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="10" t="n">
+      <c r="F14" s="32"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="10" t="n">
         <v>6</v>
       </c>
-      <c r="H14" s="32"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35"/>
+      <c r="N14" s="32"/>
+      <c r="AMI14" s="0"/>
+      <c r="AMJ14" s="0"/>
     </row>
     <row r="15" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6"/>
@@ -9479,11 +9668,17 @@
       </c>
       <c r="D15" s="15"/>
       <c r="E15" s="15"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="12"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35"/>
+      <c r="N15" s="32"/>
+      <c r="AMI15" s="0"/>
+      <c r="AMJ15" s="0"/>
     </row>
     <row r="16" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="6"/>
@@ -9493,13 +9688,19 @@
       </c>
       <c r="D16" s="7"/>
       <c r="E16" s="16"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="10" t="n">
+      <c r="F16" s="32"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="10" t="n">
         <v>7</v>
       </c>
-      <c r="H16" s="32"/>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35"/>
+      <c r="N16" s="32"/>
+      <c r="AMI16" s="0"/>
+      <c r="AMJ16" s="0"/>
     </row>
     <row r="17" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="6"/>
@@ -9509,320 +9710,128 @@
       </c>
       <c r="D17" s="16"/>
       <c r="E17" s="16"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="10"/>
-      <c r="H17" s="32"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="9"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="7"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35"/>
+      <c r="N17" s="32"/>
+      <c r="AMI17" s="0"/>
+      <c r="AMJ17" s="0"/>
     </row>
     <row r="18" s="13" customFormat="true" ht="14.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="34"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="10" t="n">
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="9"/>
+      <c r="H18" s="10" t="n">
         <v>8</v>
       </c>
-      <c r="H18" s="11"/>
-      <c r="I18" s="12"/>
-      <c r="J18" s="12"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="7"/>
+      <c r="L18" s="7"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="11"/>
+      <c r="AMI18" s="0"/>
+      <c r="AMJ18" s="0"/>
     </row>
     <row r="19" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="34"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="12"/>
-      <c r="J19" s="12"/>
+      <c r="C19" s="7"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="9"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="7"/>
+      <c r="L19" s="7"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="11"/>
+      <c r="AMI19" s="0"/>
+      <c r="AMJ19" s="0"/>
     </row>
     <row r="20" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="6"/>
       <c r="B20" s="6"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="10" t="n">
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="9"/>
+      <c r="H20" s="10" t="n">
         <v>9</v>
       </c>
-      <c r="H20" s="11"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="7"/>
+      <c r="L20" s="7"/>
+      <c r="M20" s="7"/>
+      <c r="N20" s="11"/>
+      <c r="AMI20" s="0"/>
+      <c r="AMJ20" s="0"/>
     </row>
     <row r="21" s="13" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="6"/>
       <c r="B21" s="6"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="10"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="12"/>
-      <c r="J21" s="12"/>
-    </row>
-    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048361" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048362" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048363" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048364" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048365" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048366" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048367" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048368" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048369" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048370" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048371" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048372" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048373" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048374" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048375" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048376" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048377" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048378" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048379" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048380" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048381" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048382" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048383" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048384" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048385" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048386" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048387" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048388" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048389" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048390" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048391" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048392" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048393" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048394" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048395" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048396" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048397" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048398" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048399" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048400" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048401" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048402" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048403" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048404" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048405" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048406" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048407" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048408" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048409" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048410" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048411" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048412" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048413" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048414" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048415" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048416" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048417" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048418" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048419" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048420" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048421" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048422" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048423" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048424" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048425" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048426" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048427" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048428" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048429" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048430" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048431" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048432" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048433" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048434" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048435" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048436" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048437" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048438" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048439" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048440" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048441" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048442" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048443" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048444" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048445" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048446" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048447" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048448" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048449" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048450" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048451" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048452" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048453" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048454" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048455" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048456" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048457" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048458" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048459" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048460" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048461" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048462" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048463" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048464" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048465" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048466" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048467" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048468" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048469" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048470" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048471" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048472" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048473" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048474" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048475" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048476" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048477" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048478" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048479" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048480" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048481" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048482" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048483" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048484" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048485" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048486" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048487" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048488" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048489" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048490" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048491" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048492" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048493" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048494" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048495" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048496" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048497" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048498" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048499" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048500" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048501" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048502" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048503" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048504" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048505" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048506" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048507" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048508" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048509" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048510" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048511" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048512" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048513" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048514" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048515" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048516" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048517" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048518" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048519" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048520" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048521" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048522" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048523" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048524" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048525" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048526" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048527" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048528" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048529" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048530" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048531" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048538" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048539" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048540" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048541" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048542" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048543" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048545" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048546" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048547" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048548" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048549" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048550" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048551" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048552" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048553" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048554" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048555" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048556" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048557" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048558" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048559" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048560" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048561" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048562" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048563" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048564" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048565" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048566" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048567" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048568" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048569" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048570" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048571" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048572" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048573" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048574" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048575" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="9"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="7"/>
+      <c r="M21" s="7"/>
+      <c r="N21" s="11"/>
+      <c r="AMI21" s="0"/>
+      <c r="AMJ21" s="0"/>
+    </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="32">
     <mergeCell ref="A2:A9"/>
     <mergeCell ref="B2:B9"/>
-    <mergeCell ref="F2:F21"/>
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="H2:H9"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="F2:F9"/>
+    <mergeCell ref="G2:G21"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="I2:I3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="H8:H9"/>
     <mergeCell ref="A10:A17"/>
     <mergeCell ref="B10:B17"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H17"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="F10:F17"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I13"/>
+    <mergeCell ref="J10:J13"/>
+    <mergeCell ref="N10:N13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="H16:H17"/>
     <mergeCell ref="A18:A21"/>
     <mergeCell ref="B18:B21"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H21"/>
-    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="F18:F21"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="H20:H21"/>
   </mergeCells>
   <printOptions headings="false" gridLines="true" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
